--- a/res/files/stalls.xlsx
+++ b/res/files/stalls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MariusFiles\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MariusFiles\Desktop\chat-bot\res\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0127479-BFE7-4D5B-90AA-E44883A707FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D099FE3-FE8D-4DF1-9094-28ECE7E7626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="938">
   <si>
     <t>place_number</t>
   </si>
@@ -2833,6 +2833,12 @@
   </si>
   <si>
     <t>Burgers, Pizza</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
 </sst>
 </file>
@@ -3150,15 +3156,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="58.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3174,8 +3186,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3240,7 +3258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3254,7 +3272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3313,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -3330,7 +3348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -3344,7 +3362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3361,7 +3379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3378,7 +3396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3392,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
